--- a/src/test/resources/TestDriver/TestGL/ActivityData/ActivityData_JAN1.xlsx
+++ b/src/test/resources/TestDriver/TestGL/ActivityData/ActivityData_JAN1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestGL\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B1ADC5-B978-4460-A82B-FB41B81E9E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7B8276-B63E-4FEF-968C-072960632ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TransactionActivity" sheetId="4" r:id="rId1"/>
-    <sheet name="InstrumentAttribute" sheetId="1" r:id="rId2"/>
+    <sheet name="InstrumentAttribute" sheetId="1" r:id="rId1"/>
+    <sheet name="TransactionActivity" sheetId="4" r:id="rId2"/>
     <sheet name="GLRule" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
@@ -609,13 +609,266 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>44592</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44592</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6">
+        <v>44592</v>
+      </c>
+      <c r="J2" s="6">
+        <v>44957</v>
+      </c>
+      <c r="K2" s="7">
+        <v>100000</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="7">
+        <v>102</v>
+      </c>
+      <c r="N2" s="6">
+        <f>A2</f>
+        <v>44592</v>
+      </c>
+      <c r="O2" s="7">
+        <v>100</v>
+      </c>
+      <c r="P2" s="6">
+        <v>45350</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>45322</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>44592</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44592</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7">
+        <v>150000</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6">
+        <v>44592</v>
+      </c>
+      <c r="J3" s="6">
+        <v>44957</v>
+      </c>
+      <c r="K3" s="7">
+        <v>150000</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="7">
+        <v>102</v>
+      </c>
+      <c r="N3" s="6">
+        <f>A3</f>
+        <v>44592</v>
+      </c>
+      <c r="O3" s="7">
+        <v>200</v>
+      </c>
+      <c r="P3" s="6">
+        <v>45350</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>45322</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>44592</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44592</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="7">
+        <v>200000</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6">
+        <v>44592</v>
+      </c>
+      <c r="J4" s="6">
+        <v>44957</v>
+      </c>
+      <c r="K4" s="7">
+        <v>200000</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="7">
+        <v>102</v>
+      </c>
+      <c r="N4" s="6">
+        <f>A4</f>
+        <v>44592</v>
+      </c>
+      <c r="O4" s="7">
+        <v>300</v>
+      </c>
+      <c r="P4" s="6">
+        <v>45350</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>45322</v>
+      </c>
+      <c r="R4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5CF462-2E5F-4515-B59A-2463397D1BBE}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -771,259 +1024,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>44592</v>
-      </c>
-      <c r="B2" s="6">
-        <v>44592</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="7">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="7">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6">
-        <v>44592</v>
-      </c>
-      <c r="J2" s="6">
-        <v>44957</v>
-      </c>
-      <c r="K2" s="7">
-        <v>100000</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="7">
-        <v>102</v>
-      </c>
-      <c r="N2" s="6">
-        <f>A2</f>
-        <v>44592</v>
-      </c>
-      <c r="O2" s="7">
-        <v>100</v>
-      </c>
-      <c r="P2" s="6">
-        <v>45350</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>45322</v>
-      </c>
-      <c r="R2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>44592</v>
-      </c>
-      <c r="B3" s="6">
-        <v>44592</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="7">
-        <v>150000</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7">
-        <v>12</v>
-      </c>
-      <c r="I3" s="6">
-        <v>44592</v>
-      </c>
-      <c r="J3" s="6">
-        <v>44957</v>
-      </c>
-      <c r="K3" s="7">
-        <v>150000</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="7">
-        <v>102</v>
-      </c>
-      <c r="N3" s="6">
-        <f>A3</f>
-        <v>44592</v>
-      </c>
-      <c r="O3" s="7">
-        <v>200</v>
-      </c>
-      <c r="P3" s="6">
-        <v>45350</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>45322</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>44592</v>
-      </c>
-      <c r="B4" s="6">
-        <v>44592</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="7">
-        <v>200000</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6">
-        <v>44592</v>
-      </c>
-      <c r="J4" s="6">
-        <v>44957</v>
-      </c>
-      <c r="K4" s="7">
-        <v>200000</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="7">
-        <v>102</v>
-      </c>
-      <c r="N4" s="6">
-        <f>A4</f>
-        <v>44592</v>
-      </c>
-      <c r="O4" s="7">
-        <v>300</v>
-      </c>
-      <c r="P4" s="6">
-        <v>45350</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>45322</v>
-      </c>
-      <c r="R4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
